--- a/src/predicciones/holt_winters/producto_80.xlsx
+++ b/src/predicciones/holt_winters/producto_80.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C170"/>
+  <dimension ref="A1:C273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,1862 +404,2995 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44929</v>
       </c>
       <c r="B2">
-        <v>1.526259978636173</v>
+        <v>1.015672257866387</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44930</v>
       </c>
       <c r="B3">
-        <v>1.446337397288354</v>
+        <v>3.010902395855425</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44931</v>
       </c>
       <c r="B4">
-        <v>1.259775149846907</v>
+        <v>1.017971027799876</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44934</v>
       </c>
       <c r="B5">
-        <v>1.300451631272612</v>
+        <v>3.013634806932311</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44935</v>
       </c>
       <c r="B6">
-        <v>1.69038189348453</v>
+        <v>3.003414166111322</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44936</v>
       </c>
       <c r="B7">
-        <v>1.49653435044574</v>
+        <v>2.000814535766819</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44938</v>
       </c>
       <c r="B8">
-        <v>1.476173024364118</v>
+        <v>3.024141394990228</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44939</v>
       </c>
       <c r="B9">
-        <v>1.533588438517341</v>
+        <v>1.024209040376142</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44940</v>
       </c>
       <c r="B10">
-        <v>1.453665857169522</v>
+        <v>3.019439178365179</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44942</v>
       </c>
       <c r="B11">
-        <v>1.267103609728074</v>
+        <v>1.026507810309631</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44943</v>
       </c>
       <c r="B12">
-        <v>1.307780091153779</v>
+        <v>3.022171589442066</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44944</v>
       </c>
       <c r="B13">
-        <v>1.697710353365697</v>
+        <v>3.011950948621076</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44946</v>
       </c>
       <c r="B14">
-        <v>1.503862810326908</v>
+        <v>2.009351318276574</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44947</v>
       </c>
       <c r="B15">
-        <v>1.483501484245285</v>
+        <v>3.032678177499983</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44951</v>
       </c>
       <c r="B16">
-        <v>1.540916898398509</v>
+        <v>1.032745822885897</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44952</v>
       </c>
       <c r="B17">
-        <v>1.46099431705069</v>
+        <v>3.027975960874934</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44953</v>
       </c>
       <c r="B18">
-        <v>1.274432069609242</v>
+        <v>1.035044592819385</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44954</v>
       </c>
       <c r="B19">
-        <v>1.315108551034947</v>
+        <v>3.030708371951821</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44955</v>
       </c>
       <c r="B20">
-        <v>1.705038813246865</v>
+        <v>3.020487731130831</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>44960</v>
       </c>
       <c r="B21">
-        <v>1.511191270208076</v>
+        <v>2.017888100786328</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>44962</v>
       </c>
       <c r="B22">
-        <v>1.490829944126453</v>
+        <v>3.041214960009738</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>44963</v>
       </c>
       <c r="B23">
-        <v>1.548245358279676</v>
+        <v>1.041282605395652</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>44964</v>
       </c>
       <c r="B24">
-        <v>1.468322776931858</v>
+        <v>3.036512743384689</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>44965</v>
       </c>
       <c r="B25">
-        <v>1.28176052949041</v>
+        <v>1.04358137532914</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>44967</v>
       </c>
       <c r="B26">
-        <v>1.322437010916115</v>
+        <v>3.039245154461576</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>44968</v>
       </c>
       <c r="B27">
-        <v>1.712367273128033</v>
+        <v>3.029024513640586</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>44969</v>
       </c>
       <c r="B28">
-        <v>1.518519730089243</v>
+        <v>2.026424883296083</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>44971</v>
       </c>
       <c r="B29">
-        <v>1.498158404007621</v>
+        <v>3.049751742519493</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>44973</v>
       </c>
       <c r="B30">
-        <v>1.555573818160844</v>
+        <v>1.049819387905406</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>44974</v>
       </c>
       <c r="B31">
-        <v>1.475651236813025</v>
+        <v>3.045049525894444</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>44975</v>
       </c>
       <c r="B32">
-        <v>1.289088989371578</v>
+        <v>1.052118157838895</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>44976</v>
       </c>
       <c r="B33">
-        <v>1.329765470797283</v>
+        <v>3.04778193697133</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>44977</v>
       </c>
       <c r="B34">
-        <v>1.719695733009201</v>
+        <v>3.037561296150341</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>44978</v>
       </c>
       <c r="B35">
-        <v>1.525848189970411</v>
+        <v>2.034961665805838</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>44980</v>
       </c>
       <c r="B36">
-        <v>1.505486863888789</v>
+        <v>3.058288525029248</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>44981</v>
       </c>
       <c r="B37">
-        <v>1.562902278042012</v>
+        <v>1.058356170415161</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>44983</v>
       </c>
       <c r="B38">
-        <v>1.482979696694193</v>
+        <v>3.053586308404199</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>44985</v>
       </c>
       <c r="B39">
-        <v>1.296417449252745</v>
+        <v>1.06065494034865</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>44986</v>
       </c>
       <c r="B40">
-        <v>1.337093930678451</v>
+        <v>3.056318719481085</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>44987</v>
       </c>
       <c r="B41">
-        <v>1.727024192890368</v>
+        <v>3.046098078660096</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>44988</v>
       </c>
       <c r="B42">
-        <v>1.533176649851579</v>
+        <v>2.043498448315593</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>44989</v>
       </c>
       <c r="B43">
-        <v>1.512815323769956</v>
+        <v>3.066825307539002</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>44990</v>
       </c>
       <c r="B44">
-        <v>1.57023073792318</v>
+        <v>1.066892952924916</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>44991</v>
       </c>
       <c r="B45">
-        <v>1.490308156575361</v>
+        <v>3.062123090913953</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>44992</v>
       </c>
       <c r="B46">
-        <v>1.303745909133913</v>
+        <v>1.069191722858405</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>44994</v>
       </c>
       <c r="B47">
-        <v>1.344422390559618</v>
+        <v>3.06485550199084</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>44995</v>
       </c>
       <c r="B48">
-        <v>1.734352652771536</v>
+        <v>3.054634861169851</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>44996</v>
       </c>
       <c r="B49">
-        <v>1.540505109732747</v>
+        <v>2.052035230825347</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>44999</v>
       </c>
       <c r="B50">
-        <v>1.520143783651124</v>
+        <v>3.075362090048757</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45000</v>
       </c>
       <c r="B51">
-        <v>1.577559197804348</v>
+        <v>1.075429735434671</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45001</v>
       </c>
       <c r="B52">
-        <v>1.497636616456529</v>
+        <v>3.070659873423708</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45002</v>
       </c>
       <c r="B53">
-        <v>1.311074369015081</v>
+        <v>1.077728505368159</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45003</v>
       </c>
       <c r="B54">
-        <v>1.351750850440786</v>
+        <v>3.073392284500595</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45004</v>
       </c>
       <c r="B55">
-        <v>1.741681112652704</v>
+        <v>3.063171643679605</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45005</v>
       </c>
       <c r="B56">
-        <v>1.547833569613914</v>
+        <v>2.060572013335102</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45006</v>
       </c>
       <c r="B57">
-        <v>1.527472243532292</v>
+        <v>3.083898872558512</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45008</v>
       </c>
       <c r="B58">
-        <v>1.584887657685515</v>
+        <v>1.083966517944426</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45009</v>
       </c>
       <c r="B59">
-        <v>1.504965076337696</v>
+        <v>3.079196655933463</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45011</v>
       </c>
       <c r="B60">
-        <v>1.318402828896249</v>
+        <v>1.086265287877914</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45012</v>
       </c>
       <c r="B61">
-        <v>1.359079310321954</v>
+        <v>3.081929067010349</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45013</v>
       </c>
       <c r="B62">
-        <v>1.749009572533872</v>
+        <v>3.07170842618936</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45020</v>
       </c>
       <c r="B63">
-        <v>1.555162029495082</v>
+        <v>2.069108795844857</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45021</v>
       </c>
       <c r="B64">
-        <v>1.53480070341346</v>
+        <v>3.092435655068267</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45022</v>
       </c>
       <c r="B65">
-        <v>1.592216117566683</v>
+        <v>1.09250330045418</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45025</v>
       </c>
       <c r="B66">
-        <v>1.512293536218864</v>
+        <v>3.087733438443218</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45026</v>
       </c>
       <c r="B67">
-        <v>1.325731288777416</v>
+        <v>1.094802070387669</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45027</v>
       </c>
       <c r="B68">
-        <v>1.366407770203121</v>
+        <v>3.090465849520105</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45028</v>
       </c>
       <c r="B69">
-        <v>1.756338032415039</v>
+        <v>3.080245208699115</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45029</v>
       </c>
       <c r="B70">
-        <v>1.56249048937625</v>
+        <v>2.077645578354612</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45031</v>
       </c>
       <c r="B71">
-        <v>1.542129163294627</v>
+        <v>3.100972437578021</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45032</v>
       </c>
       <c r="B72">
-        <v>1.599544577447851</v>
+        <v>1.101040082963935</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45034</v>
       </c>
       <c r="B73">
-        <v>1.519621996100032</v>
+        <v>3.096270220952972</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45036</v>
       </c>
       <c r="B74">
-        <v>1.333059748658584</v>
+        <v>1.103338852897424</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45041</v>
       </c>
       <c r="B75">
-        <v>1.373736230084289</v>
+        <v>3.099002632029859</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45042</v>
       </c>
       <c r="B76">
-        <v>1.763666492296207</v>
+        <v>3.08878199120887</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45045</v>
       </c>
       <c r="B77">
-        <v>1.569818949257418</v>
+        <v>2.086182360864367</v>
       </c>
       <c r="C77">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45046</v>
       </c>
       <c r="B78">
-        <v>1.549457623175795</v>
+        <v>3.109509220087777</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45048</v>
       </c>
       <c r="B79">
-        <v>1.606873037329018</v>
+        <v>1.10957686547369</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45049</v>
       </c>
       <c r="B80">
-        <v>1.5269504559812</v>
+        <v>3.104807003462728</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45050</v>
       </c>
       <c r="B81">
-        <v>1.340388208539752</v>
+        <v>1.111875635407178</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45054</v>
       </c>
       <c r="B82">
-        <v>1.381064689965457</v>
+        <v>3.107539414539614</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45055</v>
       </c>
       <c r="B83">
-        <v>1.770994952177375</v>
+        <v>3.097318773718624</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45056</v>
       </c>
       <c r="B84">
-        <v>1.577147409138586</v>
+        <v>2.094719143374121</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45059</v>
       </c>
       <c r="B85">
-        <v>1.556786083056963</v>
+        <v>3.118046002597531</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45060</v>
       </c>
       <c r="B86">
-        <v>1.614201497210186</v>
+        <v>1.118113647983445</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45061</v>
       </c>
       <c r="B87">
-        <v>1.534278915862368</v>
+        <v>3.113343785972482</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45064</v>
       </c>
       <c r="B88">
-        <v>1.34771666842092</v>
+        <v>1.120412417916933</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45066</v>
       </c>
       <c r="B89">
-        <v>1.388393149846625</v>
+        <v>3.116076197049369</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>45070</v>
       </c>
       <c r="B90">
-        <v>1.778323412058543</v>
+        <v>3.105855556228379</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
+      <c r="A91" s="2">
+        <v>45072</v>
       </c>
       <c r="B91">
-        <v>1.584475869019753</v>
+        <v>2.103255925883877</v>
       </c>
       <c r="C91">
         <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2">
+        <v>45074</v>
       </c>
       <c r="B92">
-        <v>1.564114542938131</v>
+        <v>3.126582785107286</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
+      <c r="A93" s="2">
+        <v>45075</v>
       </c>
       <c r="B93">
-        <v>1.621529957091354</v>
+        <v>1.126650430493199</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
+      <c r="A94" s="2">
+        <v>45076</v>
       </c>
       <c r="B94">
-        <v>1.541607375743535</v>
+        <v>3.121880568482237</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
+      <c r="A95" s="2">
+        <v>45077</v>
       </c>
       <c r="B95">
-        <v>1.355045128302087</v>
+        <v>1.128949200426688</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
+      <c r="A96" s="2">
+        <v>45079</v>
       </c>
       <c r="B96">
-        <v>1.395721609727793</v>
+        <v>3.124612979559124</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
+      <c r="A97" s="2">
+        <v>45080</v>
       </c>
       <c r="B97">
-        <v>1.785651871939711</v>
+        <v>3.114392338738134</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
+      <c r="A98" s="2">
+        <v>45081</v>
       </c>
       <c r="B98">
-        <v>1.591804328900921</v>
+        <v>2.111792708393631</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
+      <c r="A99" s="2">
+        <v>45083</v>
       </c>
       <c r="B99">
-        <v>1.571443002819298</v>
+        <v>3.135119567617041</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
+      <c r="A100" s="2">
+        <v>45084</v>
       </c>
       <c r="B100">
-        <v>1.628858416972522</v>
+        <v>1.135187213002955</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
+      <c r="A101" s="2">
+        <v>45085</v>
       </c>
       <c r="B101">
-        <v>1.548935835624703</v>
+        <v>3.130417350991992</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
+      <c r="A102" s="2">
+        <v>45086</v>
       </c>
       <c r="B102">
-        <v>1.362373588183255</v>
+        <v>1.137485982936443</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>101</v>
+      <c r="A103" s="2">
+        <v>45087</v>
       </c>
       <c r="B103">
-        <v>1.40305006960896</v>
+        <v>3.133149762068878</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>102</v>
+      <c r="A104" s="2">
+        <v>45089</v>
       </c>
       <c r="B104">
-        <v>1.792980331820878</v>
+        <v>3.122929121247889</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>103</v>
+      <c r="A105" s="2">
+        <v>45091</v>
       </c>
       <c r="B105">
-        <v>1.599132788782089</v>
+        <v>2.120329490903386</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>104</v>
+      <c r="A106" s="2">
+        <v>45092</v>
       </c>
       <c r="B106">
-        <v>1.578771462700466</v>
+        <v>3.143656350126796</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>105</v>
+      <c r="A107" s="2">
+        <v>45093</v>
       </c>
       <c r="B107">
-        <v>1.63618687685369</v>
+        <v>1.143723995512709</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>106</v>
+      <c r="A108" s="2">
+        <v>45095</v>
       </c>
       <c r="B108">
-        <v>1.556264295505871</v>
+        <v>3.138954133501747</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>107</v>
+      <c r="A109" s="2">
+        <v>45096</v>
       </c>
       <c r="B109">
-        <v>1.369702048064423</v>
+        <v>1.146022765446198</v>
       </c>
       <c r="C109">
         <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1">
-        <v>108</v>
+      <c r="A110" s="2">
+        <v>45102</v>
       </c>
       <c r="B110">
-        <v>1.410378529490128</v>
+        <v>3.141686544578633</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="1">
-        <v>109</v>
+      <c r="A111" s="2">
+        <v>45105</v>
       </c>
       <c r="B111">
-        <v>1.800308791702046</v>
+        <v>3.131465903757644</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <v>110</v>
+      <c r="A112" s="2">
+        <v>45107</v>
       </c>
       <c r="B112">
-        <v>1.606461248663257</v>
+        <v>2.128866273413141</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>111</v>
+      <c r="A113" s="2">
+        <v>45108</v>
       </c>
       <c r="B113">
-        <v>1.586099922581634</v>
+        <v>3.15219313263655</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>112</v>
+      <c r="A114" s="2">
+        <v>45109</v>
       </c>
       <c r="B114">
-        <v>1.643515336734857</v>
+        <v>1.152260778022464</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>113</v>
+      <c r="A115" s="2">
+        <v>45110</v>
       </c>
       <c r="B115">
-        <v>1.563592755387039</v>
+        <v>3.147490916011501</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="1">
-        <v>114</v>
+      <c r="A116" s="2">
+        <v>45111</v>
       </c>
       <c r="B116">
-        <v>1.377030507945591</v>
+        <v>1.154559547955953</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="1">
-        <v>115</v>
+      <c r="A117" s="2">
+        <v>45113</v>
       </c>
       <c r="B117">
-        <v>1.417706989371296</v>
+        <v>3.150223327088388</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="1">
-        <v>116</v>
+      <c r="A118" s="2">
+        <v>45114</v>
       </c>
       <c r="B118">
-        <v>1.807637251583214</v>
+        <v>3.140002686267398</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="1">
-        <v>117</v>
+      <c r="A119" s="2">
+        <v>45115</v>
       </c>
       <c r="B119">
-        <v>1.613789708544424</v>
+        <v>2.137403055922896</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="1">
-        <v>118</v>
+      <c r="A120" s="2">
+        <v>45116</v>
       </c>
       <c r="B120">
-        <v>1.593428382462802</v>
+        <v>3.160729915146305</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="1">
-        <v>119</v>
+      <c r="A121" s="2">
+        <v>45117</v>
       </c>
       <c r="B121">
-        <v>1.650843796616025</v>
+        <v>1.160797560532219</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1">
-        <v>120</v>
+      <c r="A122" s="2">
+        <v>45119</v>
       </c>
       <c r="B122">
-        <v>1.570921215268206</v>
+        <v>3.156027698521256</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="1">
-        <v>121</v>
+      <c r="A123" s="2">
+        <v>45121</v>
       </c>
       <c r="B123">
-        <v>1.384358967826758</v>
+        <v>1.163096330465707</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="1">
-        <v>122</v>
+      <c r="A124" s="2">
+        <v>45124</v>
       </c>
       <c r="B124">
-        <v>1.425035449252464</v>
+        <v>3.158760109598143</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="1">
-        <v>123</v>
+      <c r="A125" s="2">
+        <v>45128</v>
       </c>
       <c r="B125">
-        <v>1.814965711464382</v>
+        <v>3.148539468777153</v>
       </c>
       <c r="C125">
         <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="1">
-        <v>124</v>
+      <c r="A126" s="2">
+        <v>45129</v>
       </c>
       <c r="B126">
-        <v>1.621118168425592</v>
+        <v>2.14593983843265</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="1">
-        <v>125</v>
+      <c r="A127" s="2">
+        <v>45130</v>
       </c>
       <c r="B127">
-        <v>1.60075684234397</v>
+        <v>3.16926669765606</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="1">
-        <v>126</v>
+      <c r="A128" s="2">
+        <v>45131</v>
       </c>
       <c r="B128">
-        <v>1.658172256497193</v>
+        <v>1.169334343041974</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="1">
-        <v>127</v>
+      <c r="A129" s="2">
+        <v>45132</v>
       </c>
       <c r="B129">
-        <v>1.578249675149374</v>
+        <v>3.164564481031011</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="1">
-        <v>128</v>
+      <c r="A130" s="2">
+        <v>45135</v>
       </c>
       <c r="B130">
-        <v>1.391687427707926</v>
+        <v>1.171633112975462</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="1">
-        <v>129</v>
+      <c r="A131" s="2">
+        <v>45136</v>
       </c>
       <c r="B131">
-        <v>1.432363909133632</v>
+        <v>3.167296892107898</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="1">
-        <v>130</v>
+      <c r="A132" s="2">
+        <v>45137</v>
       </c>
       <c r="B132">
-        <v>1.822294171345549</v>
+        <v>3.157076251286908</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="1">
-        <v>131</v>
+      <c r="A133" s="2">
+        <v>45139</v>
       </c>
       <c r="B133">
-        <v>1.62844662830676</v>
+        <v>2.154476620942405</v>
       </c>
       <c r="C133">
         <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="1">
-        <v>132</v>
+      <c r="A134" s="2">
+        <v>45142</v>
       </c>
       <c r="B134">
-        <v>1.608085302225137</v>
+        <v>3.177803480165815</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="1">
-        <v>133</v>
+      <c r="A135" s="2">
+        <v>45144</v>
       </c>
       <c r="B135">
-        <v>1.66550071637836</v>
+        <v>1.177871125551728</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="1">
-        <v>134</v>
+      <c r="A136" s="2">
+        <v>45147</v>
       </c>
       <c r="B136">
-        <v>1.585578135030542</v>
+        <v>3.173101263540766</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="1">
-        <v>135</v>
+      <c r="A137" s="2">
+        <v>45148</v>
       </c>
       <c r="B137">
-        <v>1.399015887589094</v>
+        <v>1.180169895485217</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="1">
-        <v>136</v>
+      <c r="A138" s="2">
+        <v>45149</v>
       </c>
       <c r="B138">
-        <v>1.439692369014799</v>
+        <v>3.175833674617652</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="1">
-        <v>137</v>
+      <c r="A139" s="2">
+        <v>45150</v>
       </c>
       <c r="B139">
-        <v>1.829622631226717</v>
+        <v>3.165613033796663</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="1">
-        <v>138</v>
+      <c r="A140" s="2">
+        <v>45151</v>
       </c>
       <c r="B140">
-        <v>1.635775088187928</v>
+        <v>2.16301340345216</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="1">
-        <v>139</v>
+      <c r="A141" s="2">
+        <v>45152</v>
       </c>
       <c r="B141">
-        <v>1.615413762106305</v>
+        <v>3.18634026267557</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="1">
-        <v>140</v>
+      <c r="A142" s="2">
+        <v>45154</v>
       </c>
       <c r="B142">
-        <v>1.672829176259528</v>
+        <v>1.186407908061483</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="1">
-        <v>141</v>
+      <c r="A143" s="2">
+        <v>45155</v>
       </c>
       <c r="B143">
-        <v>1.59290659491171</v>
+        <v>3.181638046050521</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="1">
-        <v>142</v>
+      <c r="A144" s="2">
+        <v>45156</v>
       </c>
       <c r="B144">
-        <v>1.406344347470262</v>
+        <v>1.188706677994972</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="1">
-        <v>143</v>
+      <c r="A145" s="2">
+        <v>45157</v>
       </c>
       <c r="B145">
-        <v>1.447020828895967</v>
+        <v>3.184370457127407</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="1">
-        <v>144</v>
+      <c r="A146" s="2">
+        <v>45158</v>
       </c>
       <c r="B146">
-        <v>1.836951091107885</v>
+        <v>3.174149816306417</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="1">
-        <v>145</v>
+      <c r="A147" s="2">
+        <v>45160</v>
       </c>
       <c r="B147">
-        <v>1.643103548069095</v>
+        <v>2.171550185961915</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="1">
-        <v>146</v>
+      <c r="A148" s="2">
+        <v>45161</v>
       </c>
       <c r="B148">
-        <v>1.622742221987473</v>
+        <v>3.194877045185324</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="1">
-        <v>147</v>
+      <c r="A149" s="2">
+        <v>45162</v>
       </c>
       <c r="B149">
-        <v>1.680157636140696</v>
+        <v>1.194944690571238</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="1">
-        <v>148</v>
+      <c r="A150" s="2">
+        <v>45164</v>
       </c>
       <c r="B150">
-        <v>1.600235054792877</v>
+        <v>3.190174828560275</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="1">
-        <v>149</v>
+      <c r="A151" s="2">
+        <v>45165</v>
       </c>
       <c r="B151">
-        <v>1.41367280735143</v>
+        <v>1.197243460504727</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="1">
-        <v>150</v>
+      <c r="A152" s="2">
+        <v>45167</v>
       </c>
       <c r="B152">
-        <v>1.454349288777135</v>
+        <v>3.192907239637162</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="1">
-        <v>151</v>
+      <c r="A153" s="2">
+        <v>45168</v>
       </c>
       <c r="B153">
-        <v>1.844279550989053</v>
+        <v>3.182686598816173</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="1">
-        <v>152</v>
+      <c r="A154" s="2">
+        <v>45169</v>
       </c>
       <c r="B154">
-        <v>1.650432007950263</v>
+        <v>2.18008696847167</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="1">
-        <v>153</v>
+      <c r="A155" s="2">
+        <v>45170</v>
       </c>
       <c r="B155">
-        <v>1.630070681868641</v>
+        <v>3.203413827695079</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="1">
-        <v>154</v>
+      <c r="A156" s="2">
+        <v>45172</v>
       </c>
       <c r="B156">
-        <v>1.687486096021864</v>
+        <v>1.203481473080993</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="1">
-        <v>155</v>
+      <c r="A157" s="2">
+        <v>45173</v>
       </c>
       <c r="B157">
-        <v>1.607563514674045</v>
+        <v>3.19871161107003</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="1">
-        <v>156</v>
+      <c r="A158" s="2">
+        <v>45174</v>
       </c>
       <c r="B158">
-        <v>1.421001267232597</v>
+        <v>1.205780243014481</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="1">
-        <v>157</v>
+      <c r="A159" s="2">
+        <v>45175</v>
       </c>
       <c r="B159">
-        <v>1.461677748658302</v>
+        <v>3.201444022146917</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="1">
-        <v>158</v>
+      <c r="A160" s="2">
+        <v>45176</v>
       </c>
       <c r="B160">
-        <v>1.85160801087022</v>
+        <v>3.191223381325927</v>
       </c>
       <c r="C160">
         <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="1">
-        <v>159</v>
+      <c r="A161" s="2">
+        <v>45177</v>
       </c>
       <c r="B161">
-        <v>1.657760467831431</v>
+        <v>2.188623750981424</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="1">
-        <v>160</v>
+      <c r="A162" s="2">
+        <v>45178</v>
       </c>
       <c r="B162">
-        <v>1.637399141749808</v>
+        <v>3.211950610204834</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="1">
-        <v>161</v>
+      <c r="A163" s="2">
+        <v>45179</v>
       </c>
       <c r="B163">
-        <v>1.694814555903032</v>
+        <v>1.212018255590748</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="1">
-        <v>162</v>
+      <c r="A164" s="2">
+        <v>45180</v>
       </c>
       <c r="B164">
-        <v>1.614891974555213</v>
+        <v>3.207248393579785</v>
       </c>
       <c r="C164">
         <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="1">
-        <v>163</v>
+      <c r="A165" s="2">
+        <v>45181</v>
       </c>
       <c r="B165">
-        <v>1.428329727113765</v>
+        <v>1.214317025524236</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="1">
-        <v>164</v>
+      <c r="A166" s="2">
+        <v>45182</v>
       </c>
       <c r="B166">
-        <v>1.46900620853947</v>
+        <v>3.209980804656671</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="1">
-        <v>165</v>
+      <c r="A167" s="2">
+        <v>45183</v>
       </c>
       <c r="B167">
-        <v>1.858936470751388</v>
+        <v>3.199760163835682</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="1">
-        <v>166</v>
+      <c r="A168" s="2">
+        <v>45184</v>
       </c>
       <c r="B168">
-        <v>1.665088927712599</v>
+        <v>2.197160533491179</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="1">
-        <v>167</v>
+      <c r="A169" s="2">
+        <v>45185</v>
       </c>
       <c r="B169">
-        <v>1.644727601630976</v>
+        <v>3.220487392714589</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="1">
-        <v>168</v>
+      <c r="A170" s="2">
+        <v>45189</v>
       </c>
       <c r="B170">
-        <v>1.702143015784199</v>
+        <v>1.220555038100502</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="2">
+        <v>45191</v>
+      </c>
+      <c r="B171">
+        <v>3.21578517608954</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="2">
+        <v>45192</v>
+      </c>
+      <c r="B172">
+        <v>1.222853808033991</v>
+      </c>
+      <c r="C172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="2">
+        <v>45193</v>
+      </c>
+      <c r="B173">
+        <v>3.218517587166426</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="2">
+        <v>45194</v>
+      </c>
+      <c r="B174">
+        <v>3.208296946345437</v>
+      </c>
+      <c r="C174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="2">
+        <v>45196</v>
+      </c>
+      <c r="B175">
+        <v>2.205697316000934</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="2">
+        <v>45197</v>
+      </c>
+      <c r="B176">
+        <v>3.229024175224344</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="2">
+        <v>45199</v>
+      </c>
+      <c r="B177">
+        <v>1.229091820610257</v>
+      </c>
+      <c r="C177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B178">
+        <v>3.224321958599294</v>
+      </c>
+      <c r="C178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="2">
+        <v>45203</v>
+      </c>
+      <c r="B179">
+        <v>1.231390590543746</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="2">
+        <v>45204</v>
+      </c>
+      <c r="B180">
+        <v>3.227054369676181</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="2">
+        <v>45205</v>
+      </c>
+      <c r="B181">
+        <v>3.216833728855192</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="2">
+        <v>45206</v>
+      </c>
+      <c r="B182">
+        <v>2.214234098510689</v>
+      </c>
+      <c r="C182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="2">
+        <v>45210</v>
+      </c>
+      <c r="B183">
+        <v>3.237560957734098</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="2">
+        <v>45211</v>
+      </c>
+      <c r="B184">
+        <v>1.237628603120012</v>
+      </c>
+      <c r="C184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="2">
+        <v>45212</v>
+      </c>
+      <c r="B185">
+        <v>3.232858741109049</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="2">
+        <v>45214</v>
+      </c>
+      <c r="B186">
+        <v>1.239927373053501</v>
+      </c>
+      <c r="C186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="2">
+        <v>45215</v>
+      </c>
+      <c r="B187">
+        <v>3.235591152185936</v>
+      </c>
+      <c r="C187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="2">
+        <v>45216</v>
+      </c>
+      <c r="B188">
+        <v>3.225370511364946</v>
+      </c>
+      <c r="C188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="2">
+        <v>45218</v>
+      </c>
+      <c r="B189">
+        <v>2.222770881020443</v>
+      </c>
+      <c r="C189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="2">
+        <v>45219</v>
+      </c>
+      <c r="B190">
+        <v>3.246097740243853</v>
+      </c>
+      <c r="C190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="2">
+        <v>45220</v>
+      </c>
+      <c r="B191">
+        <v>1.246165385629767</v>
+      </c>
+      <c r="C191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="2">
+        <v>45221</v>
+      </c>
+      <c r="B192">
+        <v>3.241395523618804</v>
+      </c>
+      <c r="C192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="2">
+        <v>45223</v>
+      </c>
+      <c r="B193">
+        <v>1.248464155563255</v>
+      </c>
+      <c r="C193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="2">
+        <v>45224</v>
+      </c>
+      <c r="B194">
+        <v>3.244127934695691</v>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="2">
+        <v>45225</v>
+      </c>
+      <c r="B195">
+        <v>3.233907293874701</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="2">
+        <v>45227</v>
+      </c>
+      <c r="B196">
+        <v>2.231307663530198</v>
+      </c>
+      <c r="C196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="2">
+        <v>45229</v>
+      </c>
+      <c r="B197">
+        <v>3.254634522753608</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B198">
+        <v>1.254702168139521</v>
+      </c>
+      <c r="C198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="2">
+        <v>45232</v>
+      </c>
+      <c r="B199">
+        <v>3.249932306128559</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="2">
+        <v>45233</v>
+      </c>
+      <c r="B200">
+        <v>1.25700093807301</v>
+      </c>
+      <c r="C200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="2">
+        <v>45234</v>
+      </c>
+      <c r="B201">
+        <v>3.252664717205445</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="2">
+        <v>45236</v>
+      </c>
+      <c r="B202">
+        <v>3.242444076384456</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="2">
+        <v>45237</v>
+      </c>
+      <c r="B203">
+        <v>2.239844446039953</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="2">
+        <v>45239</v>
+      </c>
+      <c r="B204">
+        <v>3.263171305263363</v>
+      </c>
+      <c r="C204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="2">
+        <v>45241</v>
+      </c>
+      <c r="B205">
+        <v>1.263238950649276</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="2">
+        <v>45242</v>
+      </c>
+      <c r="B206">
+        <v>3.258469088638314</v>
+      </c>
+      <c r="C206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="2">
+        <v>45244</v>
+      </c>
+      <c r="B207">
+        <v>1.265537720582765</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="2">
+        <v>45245</v>
+      </c>
+      <c r="B208">
+        <v>3.2612014997152</v>
+      </c>
+      <c r="C208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="2">
+        <v>45248</v>
+      </c>
+      <c r="B209">
+        <v>3.250980858894211</v>
+      </c>
+      <c r="C209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="2">
+        <v>45249</v>
+      </c>
+      <c r="B210">
+        <v>2.248381228549708</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="2">
+        <v>45250</v>
+      </c>
+      <c r="B211">
+        <v>3.271708087773118</v>
+      </c>
+      <c r="C211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="2">
+        <v>45251</v>
+      </c>
+      <c r="B212">
+        <v>1.271775733159031</v>
+      </c>
+      <c r="C212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="2">
+        <v>45253</v>
+      </c>
+      <c r="B213">
+        <v>3.267005871148069</v>
+      </c>
+      <c r="C213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="2">
+        <v>45255</v>
+      </c>
+      <c r="B214">
+        <v>1.27407450309252</v>
+      </c>
+      <c r="C214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B215">
+        <v>3.269738282224955</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="2">
+        <v>45258</v>
+      </c>
+      <c r="B216">
+        <v>3.259517641403966</v>
+      </c>
+      <c r="C216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B217">
+        <v>2.256918011059463</v>
+      </c>
+      <c r="C217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B218">
+        <v>3.280244870282873</v>
+      </c>
+      <c r="C218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="2">
+        <v>45262</v>
+      </c>
+      <c r="B219">
+        <v>1.280312515668786</v>
+      </c>
+      <c r="C219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="2">
+        <v>45265</v>
+      </c>
+      <c r="B220">
+        <v>3.275542653657823</v>
+      </c>
+      <c r="C220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="2">
+        <v>45266</v>
+      </c>
+      <c r="B221">
+        <v>1.282611285602274</v>
+      </c>
+      <c r="C221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="2">
+        <v>45267</v>
+      </c>
+      <c r="B222">
+        <v>3.27827506473471</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="2">
+        <v>45269</v>
+      </c>
+      <c r="B223">
+        <v>3.26805442391372</v>
+      </c>
+      <c r="C223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="2">
+        <v>45270</v>
+      </c>
+      <c r="B224">
+        <v>2.265454793569218</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B225">
+        <v>3.288781652792627</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="2">
+        <v>45272</v>
+      </c>
+      <c r="B226">
+        <v>1.288849298178541</v>
+      </c>
+      <c r="C226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="2">
+        <v>45273</v>
+      </c>
+      <c r="B227">
+        <v>3.284079436167578</v>
+      </c>
+      <c r="C227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="2">
+        <v>45274</v>
+      </c>
+      <c r="B228">
+        <v>1.29114806811203</v>
+      </c>
+      <c r="C228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="2">
+        <v>45275</v>
+      </c>
+      <c r="B229">
+        <v>3.286811847244465</v>
+      </c>
+      <c r="C229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="2">
+        <v>45276</v>
+      </c>
+      <c r="B230">
+        <v>3.276591206423475</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="2">
+        <v>45278</v>
+      </c>
+      <c r="B231">
+        <v>2.273991576078972</v>
+      </c>
+      <c r="C231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="2">
+        <v>45280</v>
+      </c>
+      <c r="B232">
+        <v>3.297318435302382</v>
+      </c>
+      <c r="C232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="2">
+        <v>45286</v>
+      </c>
+      <c r="B233">
+        <v>1.297386080688296</v>
+      </c>
+      <c r="C233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="2">
+        <v>45288</v>
+      </c>
+      <c r="B234">
+        <v>3.292616218677333</v>
+      </c>
+      <c r="C234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="2">
+        <v>45291</v>
+      </c>
+      <c r="B235">
+        <v>1.299684850621784</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="2">
+        <v>45293</v>
+      </c>
+      <c r="B236">
+        <v>3.29534862975422</v>
+      </c>
+      <c r="C236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="2">
+        <v>45294</v>
+      </c>
+      <c r="B237">
+        <v>3.28512798893323</v>
+      </c>
+      <c r="C237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B238">
+        <v>2.282528358588727</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="2">
+        <v>45296</v>
+      </c>
+      <c r="B239">
+        <v>3.305855217812137</v>
+      </c>
+      <c r="C239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="2">
+        <v>45297</v>
+      </c>
+      <c r="B240">
+        <v>1.305922863198051</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="2">
+        <v>45298</v>
+      </c>
+      <c r="B241">
+        <v>3.301153001187088</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="2">
+        <v>45299</v>
+      </c>
+      <c r="B242">
+        <v>1.308221633131539</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="2">
+        <v>45302</v>
+      </c>
+      <c r="B243">
+        <v>3.303885412263974</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="2">
+        <v>45304</v>
+      </c>
+      <c r="B244">
+        <v>3.293664771442985</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="2">
+        <v>45305</v>
+      </c>
+      <c r="B245">
+        <v>2.291065141098482</v>
+      </c>
+      <c r="C245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="2">
+        <v>45306</v>
+      </c>
+      <c r="B246">
+        <v>3.314392000321892</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="2">
+        <v>45307</v>
+      </c>
+      <c r="B247">
+        <v>1.314459645707805</v>
+      </c>
+      <c r="C247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="2">
+        <v>45314</v>
+      </c>
+      <c r="B248">
+        <v>3.309689783696843</v>
+      </c>
+      <c r="C248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="2">
+        <v>45316</v>
+      </c>
+      <c r="B249">
+        <v>1.316758415641294</v>
+      </c>
+      <c r="C249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="2">
+        <v>45317</v>
+      </c>
+      <c r="B250">
+        <v>3.312422194773729</v>
+      </c>
+      <c r="C250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="2">
+        <v>45319</v>
+      </c>
+      <c r="B251">
+        <v>3.302201553952739</v>
+      </c>
+      <c r="C251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="2">
+        <v>45321</v>
+      </c>
+      <c r="B252">
+        <v>2.299601923608237</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B253">
+        <v>3.322928782831646</v>
+      </c>
+      <c r="C253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B254">
+        <v>1.32299642821756</v>
+      </c>
+      <c r="C254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B255">
+        <v>3.318226566206597</v>
+      </c>
+      <c r="C255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B256">
+        <v>1.325295198151049</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B257">
+        <v>3.320958977283484</v>
+      </c>
+      <c r="C257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="2">
+        <v>45331</v>
+      </c>
+      <c r="B258">
+        <v>3.310738336462494</v>
+      </c>
+      <c r="C258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="2">
+        <v>45332</v>
+      </c>
+      <c r="B259">
+        <v>2.308138706117992</v>
+      </c>
+      <c r="C259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="2">
+        <v>45335</v>
+      </c>
+      <c r="B260">
+        <v>3.331465565341401</v>
+      </c>
+      <c r="C260">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="2">
+        <v>45336</v>
+      </c>
+      <c r="B261">
+        <v>1.331533210727315</v>
+      </c>
+      <c r="C261">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="2">
+        <v>45337</v>
+      </c>
+      <c r="B262">
+        <v>3.326763348716352</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B263">
+        <v>1.333831980660803</v>
+      </c>
+      <c r="C263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="2">
+        <v>45339</v>
+      </c>
+      <c r="B264">
+        <v>3.329495759793239</v>
+      </c>
+      <c r="C264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B265">
+        <v>3.319275118972249</v>
+      </c>
+      <c r="C265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="2">
+        <v>45342</v>
+      </c>
+      <c r="B266">
+        <v>2.316675488627746</v>
+      </c>
+      <c r="C266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="2">
+        <v>45343</v>
+      </c>
+      <c r="B267">
+        <v>3.340002347851156</v>
+      </c>
+      <c r="C267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="2">
+        <v>45344</v>
+      </c>
+      <c r="B268">
+        <v>1.34006999323707</v>
+      </c>
+      <c r="C268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="2">
+        <v>45345</v>
+      </c>
+      <c r="B269">
+        <v>3.335300131226107</v>
+      </c>
+      <c r="C269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="2">
+        <v>45347</v>
+      </c>
+      <c r="B270">
+        <v>1.342368763170558</v>
+      </c>
+      <c r="C270">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B271">
+        <v>3.338032542302993</v>
+      </c>
+      <c r="C271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="2">
+        <v>45349</v>
+      </c>
+      <c r="B272">
+        <v>3.327811901482004</v>
+      </c>
+      <c r="C272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="2">
+        <v>45351</v>
+      </c>
+      <c r="B273">
+        <v>2.325212271137501</v>
+      </c>
+      <c r="C273">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
